--- a/100 data/data latih.xlsx
+++ b/100 data/data latih.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\analys-sentimen-knn\100 data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED6C1D-1C71-4516-9B7E-FA88735236E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388938B-BBA0-4066-AF83-E82F1FB88299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C9464FF-ECA1-4ED7-8980-5591DF59528E}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E57675-367D-4D7B-A0EC-686FBAB6AC57}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
